--- a/canada/1.alberta/edmonton/17-ab-brake-service.xlsx
+++ b/canada/1.alberta/edmonton/17-ab-brake-service.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="863">
   <si>
     <t>Business URL</t>
   </si>
@@ -52,6 +52,432 @@
     <t>https://www.bbb.org/ca/ab/lloydminster/profile/tire-dealers/ward-tirecraft-lloydminster-0117-104389</t>
   </si>
   <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/caddy-auto-service-ltd-0117-113057</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/spruce-grove/profile/brake-service/spruceland-truck-trailer-0117-100049</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/leduc/profile/new-car-dealers/leduc-chrysler-dodge-jeep-ram-0117-102397</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/gear-up-auto-services-ltd-0117-112566</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/danmar-automotive-ltd-0117-127900</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/computerized-autopro-0117-101607</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/schwabes-automotive-centre-inc-0117-102172</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/tire-dealers/fountain-tire-0117-107358</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/new-auto-parts/a-1-willys-parts-place-inc-0117-103486</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/north-central-auto-repairs-ltd-0117-110122</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/tire-dealers/ok-tire-auto-service-0117-108459</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edson/profile/mechanical-contractors/piston-pete-mechanical-0117-222310</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/st-albert/profile/tire-dealers/trail-tire-0117-107802</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/imported-car-dealers/pure-executive-auto-0117-184927</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/trucking-transportation-brokers/first-industries-corporation-0117-125089</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/airdrie/profile/auto-repair/brockways-automotive-0017-119148</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/action-muffler-radiator-brakes-ltd-0117-106832</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/new-car-dealers/west-side-mitsubishi-0117-117535</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/new-car-dealers/go-mazda-0117-151217</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/provost/profile/brake-service/mechanix-auto-centre-inc-0117-183892</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/fort-saskatchewan/profile/auto-repair/roadreddy-auto-services-ltd-0117-100285</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/all-types-automotive-services-0117-209853</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer-county/profile/heavy-duty-equipment-repair/excel-equipment-repair-0117-226122</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/brake-service/laferte-autoservice-0117-153000</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/muffler/alta-custom-exhaust-ltd-0117-138556</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/auto-repair/stirling-auto-0117-108813</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/brake-service/edmonton-brake-clutch-ltd-0117-101167</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/sherwood-park/profile/new-car-dealers/sherwood-buick-gmc-0117-101558</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/airdrie/profile/auto-services/smart-auto-tire-0017-23974</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/brake-service/inter-continental-gear-brake-inc-0117-185348</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/m-l-automotive-0117-103080</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/gainford/profile/auto-repair/k-b-h-automotive-0117-158449</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/dynamic-automotives-0117-108783</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/a-r-automotive-0117-101929</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/vermilion/profile/tire-dealers/tirecraft-auto-centres-ltd-0117-113062</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/car-dealers/megasell-motors-0117-203446</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer-county/profile/new-car-dealers/cam-clark-ford-sales-2012-ltd-0117-102271</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/macro-automotive-ltd-0117-109406</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/brake-service/action-brake-and-mechanical-0117-108278</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/auto-repair/d-m-align-brake-0117-108800</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/sherwood-park/profile/auto-repair/smittys-automotive-svc-ctr-0117-109840</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/auto-machine-shop/das-auto-import-experts-0117-149461</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/st-albert/profile/brake-service/st-albert-tune-up-brake-0117-105709</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/action-muffler-radiator-brakes-0117-102685</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/the-tire-warehouse-0117-100720</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/durans-auto-mechanic-services-inc-0117-157892</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/lloydminster/profile/auto-repair/rally-muffler-transmission-limited-0117-142685</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/kens-tire-and-auto-0117-135707</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/kingsgate-automotives-ltd-0117-106079</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/st-albert/profile/auto-repair/factory-automotive-inc-0117-152366</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/new-car-dealers/kentwood-ford-sales-inc-0117-102827</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/onoway/profile/auto-body-repair-and-painting/jacks-auto-body-ltd-0117-152924</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/auto-repair/ankylo-automotive-ltd-0117-210926</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/k-m-w-performance-center-0117-108834</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/hi-tech-alignment-brakes-2004-ltd-0117-103178</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/the-tire-warehouse-0117-104755?addressId=65921</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/beaumont/profile/auto-services/beaumont-automotive-parts-service-0117-156805</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/tire-repair/tire-bee-inc-0117-210941</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/tire-dealers/tirecraft-0117-104572</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/tire-dealers/ok-tire-store-whyte-avenue-0117-103079</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/speedy-muffler-brake-0117-141034</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/wetaskiwin/profile/new-car-dealers/legacy-dodge-wetaskiwin-0117-191312</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/leduc/profile/auto-repair/pat-cecs-auto-repair-ltd-0117-107639</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/ponoka/profile/tire-dealers/integra-tire-and-auto-centres-0117-104392</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/berts-auto-tires-0117-102668</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/fort-saskatchewan/profile/auto-repair/trinity-automotive-ltd-0117-204635</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/leduc/profile/auto-services/tischer-automotive-services-ltd-0117-108980</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/kensington-auto-repair-0117-139928</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/camrose/profile/auto-repair/and-automotive-0117-208607</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/lloydminster/profile/auto-repair/boundary-ford-sales-ltd-0117-176737</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-services/groat-road-auto-service-0117-102333</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-air-conditioning/bruce-stewarts-auto-repair-centre-0117-104929</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/sherwood-park/profile/new-car-dealers/park-mazda-0117-134206</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/b-zee-mechanical-repair-ltd-0117-108979</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/leduc/profile/auto-repair/jiffy-lube-0117-133631</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/tire-dealers/trail-tire-service-ltd-0117-103078</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/sk/lloydminster/profile/auto-repair/daves-auto-service-experts-2015-inc-0117-107133</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/stony-plain/profile/tire-dealers/integra-tire-and-auto-centre-stony-plain-0117-152530</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/premium-automotive-ltd-0117-103271</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/new-car-dealers/capital-gmc-buick-0117-178597</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/alberta-motorworks-ltd-0117-112196</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/bettchers-auto-services-0117-107862</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/tire-dealers/tirecraft-auto-centers-ltd-edmonton-west-0117-104387</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/action-muffler-radiator-brakes-ltd-0117-107605</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/brookview-auto-service-0117-109306</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/sherwood-park/profile/auto-repair/robins-automotive-0117-101271</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/wabamun/profile/auto-repair/trades-automotive-welding-ltd-0117-103321</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/auto-repair/the-tire-warehouse-0117-249428?addressId=179686</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/airdrie/profile/auto-repair/stand-fast-automotive-repair-0017-69626</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/acheson/profile/auto-repair/pag-automotive-services-ltd-0117-149857</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/ardrossan/profile/auto-repair/nathans-garage-ltd-0117-237779</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/brake-service/brake-check-0117-113417</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/ok-tire-0117-106290</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/vegreville/profile/auto-repair/vegreville-mechanical-ltd-0117-108142</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/auto-repair/dicks-auto-truck-repair-0117-103224</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/brake-service/minit-tune-brake-0117-104589</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/alberta-brake-service-ltd-0117-103701</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/wiltronics-auto-repair-ltd-0117-106975</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/transmission/dot-transmissions-ltd-0117-100626</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/a-plus-auto-ltd-0117-107292</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/four-star-auto-repair-centre-0117-108721</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-body-repair-and-painting/toms-auto-care-0117-112992</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/fort-saskatchewan/profile/muffler/minute-muffler-brake-0117-148585</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/westside-automotive-1990-ltd-0117-100246</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-maintenance/auto-imports-0117-100064</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/muffler/midas-auto-service-experts-0117-104173</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/zippys-auto-inc-0117-110701</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/auto-repair/peak-automotive-services-limited-0117-119335</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/cold-lake/profile/new-car-dealers/lake-city-motor-products-ltd-0117-135659</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/thorhild/profile/auto-repair/spins-tirecraft-0117-175158</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/windsor-car-clinic-0117-102589</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/stony-plain/profile/new-car-dealers/stony-plain-chrysler-ltd-0117-102156</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/airdrie/profile/auto-services/w-b-automotive-repair-ltd-0017-36580</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/legend-automotive-repair-0117-100971</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/kleiber-automotive-0117-101162</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/cold-lake/profile/auto-repair/jm-automotive-cold-lake-0117-178342</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/tire-dealers/central-tire-0117-102184</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/the-tire-warehouse-0117-104754?addressId=65920</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/tanzam-auto-centre-0117-103021</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/lloydminster/profile/auto-repair/all-out-auto-repair-0117-147530</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/wild-rose-auto-repair-0117-128507</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/brake-service/quality-brake-0117-101738</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/the-tire-warehouse-0117-249429?addressId=179687</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/lloydminster/profile/auto-repair/truck-zone-inc-0117-104721</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-maintenance/kt-motors-0117-192159</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/tichi-auto-repair-0117-210888</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/auto-repair/mikasa-automotive-corp-0117-152388</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edson/profile/auto-repair/wildens-service-ltd-0117-109392</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/st-albert/profile/auto-repair/ricks-auto-service-inc-0117-119150</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/sherwood-park/profile/tire-dealers/integra-tire-auto-centre-0117-152525</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/grande-prairie/profile/truck-repair/truck-zone-0117-106566</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/village-auto-tire-service-0117-102784</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/muffler/midas-auto-service-experts-0117-102438</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/morinville/profile/tire-dealers/tirecraft-auto-centers-ltd-0117-104391</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/kaz-solution-auto-0117-165482</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/new-car-dealers/west-end-nissan-0117-101149</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/sturgeon-county/profile/auto-repair/abl-auto-electric-ltd-0117-112098</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/good-news-auto-ltd-0117-170899</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/scorpion-auto-clinic-ltd-0117-103458</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-services/hitec-fuel-systems-0117-107558</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/the-tire-warehouse-0117-112449?addressId=73856</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edson/profile/new-car-dealers/edson-chrysler-dodge-jeep-ltd-0117-113188</t>
+  </si>
+  <si>
     <t>Busted Knuckle Auto Repair</t>
   </si>
   <si>
@@ -68,6 +494,411 @@
   </si>
   <si>
     <t>Ward Tirecraft Lloydminster</t>
+  </si>
+  <si>
+    <t>Caddy Auto Service Ltd</t>
+  </si>
+  <si>
+    <t>Spruceland Truck &amp; Trailer</t>
+  </si>
+  <si>
+    <t>Leduc Chrysler Dodge Jeep Ram</t>
+  </si>
+  <si>
+    <t>Gear Up Auto Services Ltd</t>
+  </si>
+  <si>
+    <t>Danmar Automotive Ltd</t>
+  </si>
+  <si>
+    <t>Computerized AutoPro</t>
+  </si>
+  <si>
+    <t>Schwabe's Automotive Centre Inc</t>
+  </si>
+  <si>
+    <t>Fountain Tire</t>
+  </si>
+  <si>
+    <t>A-1 Willy's Parts Place Inc</t>
+  </si>
+  <si>
+    <t>North Central Auto Repairs Ltd</t>
+  </si>
+  <si>
+    <t>OK Tire &amp; Auto Service</t>
+  </si>
+  <si>
+    <t>Piston Pete Mechanical</t>
+  </si>
+  <si>
+    <t>Trail Tire</t>
+  </si>
+  <si>
+    <t>Pure Executive Auto</t>
+  </si>
+  <si>
+    <t>First Industries Corporation</t>
+  </si>
+  <si>
+    <t>Brockway's Automotive</t>
+  </si>
+  <si>
+    <t>Action Muffler Radiator &amp; Brakes Ltd</t>
+  </si>
+  <si>
+    <t>West Side Mitsubishi</t>
+  </si>
+  <si>
+    <t>Go Mazda</t>
+  </si>
+  <si>
+    <t>Mechanix Auto Centre Inc</t>
+  </si>
+  <si>
+    <t>Roadreddy Auto Services Ltd</t>
+  </si>
+  <si>
+    <t>All Types Automotive Services</t>
+  </si>
+  <si>
+    <t>Excel Equipment Repair</t>
+  </si>
+  <si>
+    <t>Laferte AutoService</t>
+  </si>
+  <si>
+    <t>Alta Custom Exhaust Ltd.</t>
+  </si>
+  <si>
+    <t>Stirling Auto</t>
+  </si>
+  <si>
+    <t>Edmonton Brake &amp; Clutch Ltd</t>
+  </si>
+  <si>
+    <t>Sherwood Buick GMC</t>
+  </si>
+  <si>
+    <t>Smart Auto &amp; Tire</t>
+  </si>
+  <si>
+    <t>Inter-Continental Gear &amp; Brake Inc</t>
+  </si>
+  <si>
+    <t>M &amp; L Automotive</t>
+  </si>
+  <si>
+    <t>K B H Automotive</t>
+  </si>
+  <si>
+    <t>Dynamic Automotives</t>
+  </si>
+  <si>
+    <t>A &amp; R Automotive</t>
+  </si>
+  <si>
+    <t>Tirecraft Auto Centres Ltd</t>
+  </si>
+  <si>
+    <t>Megasell Motors</t>
+  </si>
+  <si>
+    <t>Cam Clark Ford Sales (2012) Ltd</t>
+  </si>
+  <si>
+    <t>Macro Automotive Ltd</t>
+  </si>
+  <si>
+    <t>Action Brake And Mechanical</t>
+  </si>
+  <si>
+    <t>D &amp; M Align &amp; Brake</t>
+  </si>
+  <si>
+    <t>Smitty's Automotive SVC Ctr</t>
+  </si>
+  <si>
+    <t>Das Auto Import Experts</t>
+  </si>
+  <si>
+    <t>St. Albert Tune Up &amp; Brake</t>
+  </si>
+  <si>
+    <t>Action Muffler Radiator &amp; Brakes</t>
+  </si>
+  <si>
+    <t>The Tire Warehouse</t>
+  </si>
+  <si>
+    <t>Duran's Auto Mechanic Services Inc</t>
+  </si>
+  <si>
+    <t>Rally Muffler &amp; Transmission Limited</t>
+  </si>
+  <si>
+    <t>Ken's Tire and Auto</t>
+  </si>
+  <si>
+    <t>Kingsgate Automotives Ltd.</t>
+  </si>
+  <si>
+    <t>Factory Automotive Inc</t>
+  </si>
+  <si>
+    <t>Kentwood Ford Sales Inc</t>
+  </si>
+  <si>
+    <t>Jack's Auto Body Ltd</t>
+  </si>
+  <si>
+    <t>Ankylo Automotive Ltd</t>
+  </si>
+  <si>
+    <t>K M W PerforMance Center</t>
+  </si>
+  <si>
+    <t>Hi-tech Alignment &amp; Brakes 2004 Ltd</t>
+  </si>
+  <si>
+    <t>Beaumont Automotive Parts &amp; Service</t>
+  </si>
+  <si>
+    <t>Tire Bee Inc</t>
+  </si>
+  <si>
+    <t>Tirecraft</t>
+  </si>
+  <si>
+    <t>OK Tire Store (Whyte Avenue)</t>
+  </si>
+  <si>
+    <t>Speedy Muffler &amp; Brake</t>
+  </si>
+  <si>
+    <t>Legacy Dodge Wetaskiwin</t>
+  </si>
+  <si>
+    <t>Pat &amp; Cec's Auto Repair Ltd</t>
+  </si>
+  <si>
+    <t>Integra Tire and Auto Centres</t>
+  </si>
+  <si>
+    <t>Bert's Auto &amp; Tires</t>
+  </si>
+  <si>
+    <t>Trinity Automotive Ltd</t>
+  </si>
+  <si>
+    <t>Tischer Automotive Services Ltd</t>
+  </si>
+  <si>
+    <t>Kensington Auto Repair</t>
+  </si>
+  <si>
+    <t>AnD Automotive</t>
+  </si>
+  <si>
+    <t>Boundary Ford Sales Ltd</t>
+  </si>
+  <si>
+    <t>Groat Road Auto Service</t>
+  </si>
+  <si>
+    <t>Bruce Stewart's Auto Repair Centre</t>
+  </si>
+  <si>
+    <t>Park Mazda</t>
+  </si>
+  <si>
+    <t>B Zee Mechanical Repair Ltd</t>
+  </si>
+  <si>
+    <t>Jiffy Lube</t>
+  </si>
+  <si>
+    <t>Trail Tire Service Ltd</t>
+  </si>
+  <si>
+    <t>Dave's Auto Service Experts (2015) Inc.</t>
+  </si>
+  <si>
+    <t>Integra Tire and Auto Centre (Stony Plain)</t>
+  </si>
+  <si>
+    <t>Premium Automotive Ltd</t>
+  </si>
+  <si>
+    <t>Capital GMC Buick</t>
+  </si>
+  <si>
+    <t>Alberta Motorworks Ltd</t>
+  </si>
+  <si>
+    <t>Bettcher's Auto Services</t>
+  </si>
+  <si>
+    <t>Tirecraft Auto Centers Ltd (Edmonton West)</t>
+  </si>
+  <si>
+    <t>Brookview Auto Service</t>
+  </si>
+  <si>
+    <t>Robin's Automotive</t>
+  </si>
+  <si>
+    <t>Trades Automotive &amp; Welding Ltd</t>
+  </si>
+  <si>
+    <t>Stand-Fast Automotive Repair</t>
+  </si>
+  <si>
+    <t>PAG Automotive Services Ltd.</t>
+  </si>
+  <si>
+    <t>Nathan's Garage LTD.</t>
+  </si>
+  <si>
+    <t>Brake Check</t>
+  </si>
+  <si>
+    <t>OK Tire</t>
+  </si>
+  <si>
+    <t>Vegreville Mechanical Ltd</t>
+  </si>
+  <si>
+    <t>Dick's Auto &amp; Truck Repair</t>
+  </si>
+  <si>
+    <t>Minit-Tune &amp; Brake</t>
+  </si>
+  <si>
+    <t>Alberta Brake Service Ltd</t>
+  </si>
+  <si>
+    <t>Wiltronics Auto Repair Ltd</t>
+  </si>
+  <si>
+    <t>Dot Transmissions Ltd</t>
+  </si>
+  <si>
+    <t>A Plus Auto Ltd</t>
+  </si>
+  <si>
+    <t>Four Star Auto Repair Centre</t>
+  </si>
+  <si>
+    <t>Tom's Auto Care</t>
+  </si>
+  <si>
+    <t>Minute Muffler &amp; Brake</t>
+  </si>
+  <si>
+    <t>Westside Automotive (1990) Ltd</t>
+  </si>
+  <si>
+    <t>Auto Imports</t>
+  </si>
+  <si>
+    <t>Midas Auto Service Experts</t>
+  </si>
+  <si>
+    <t>Zippy's Auto Inc</t>
+  </si>
+  <si>
+    <t>Peak Automotive Services Limited</t>
+  </si>
+  <si>
+    <t>Lake City Motor Products Ltd</t>
+  </si>
+  <si>
+    <t>Spins Tirecraft</t>
+  </si>
+  <si>
+    <t>Windsor Car Clinic</t>
+  </si>
+  <si>
+    <t>Stony Plain Chrysler Ltd</t>
+  </si>
+  <si>
+    <t>W &amp; B Automotive Repair Ltd.</t>
+  </si>
+  <si>
+    <t>Legend Automotive Repair</t>
+  </si>
+  <si>
+    <t>Kleiber Automotive</t>
+  </si>
+  <si>
+    <t>JM Automotive Cold Lake</t>
+  </si>
+  <si>
+    <t>Central Tire</t>
+  </si>
+  <si>
+    <t>Tanzam Auto Centre</t>
+  </si>
+  <si>
+    <t>All Out Auto Repair</t>
+  </si>
+  <si>
+    <t>Wild Rose Auto Repair</t>
+  </si>
+  <si>
+    <t>Quality Brake</t>
+  </si>
+  <si>
+    <t>Truck Zone Inc</t>
+  </si>
+  <si>
+    <t>KT Motors</t>
+  </si>
+  <si>
+    <t>Tichi Auto Repair</t>
+  </si>
+  <si>
+    <t>Mikasa Automotive Corp</t>
+  </si>
+  <si>
+    <t>Wildens Service Ltd</t>
+  </si>
+  <si>
+    <t>Rick's Auto Service Inc</t>
+  </si>
+  <si>
+    <t>Integra Tire &amp; Auto Centre</t>
+  </si>
+  <si>
+    <t>Truck Zone</t>
+  </si>
+  <si>
+    <t>Village Auto &amp; Tire Service</t>
+  </si>
+  <si>
+    <t>Tirecraft Auto Centers Ltd</t>
+  </si>
+  <si>
+    <t>Kaz Solution Auto</t>
+  </si>
+  <si>
+    <t>West End Nissan</t>
+  </si>
+  <si>
+    <t>AB'L Auto Electric Ltd.</t>
+  </si>
+  <si>
+    <t>Good News Auto Ltd</t>
+  </si>
+  <si>
+    <t>Scorpion Auto Clinic Ltd</t>
+  </si>
+  <si>
+    <t>Hitec Fuel Systems</t>
+  </si>
+  <si>
+    <t>Edson Chrysler Dodge Jeep Ltd</t>
   </si>
   <si>
     <t>7880 48 Ave Bay 3
@@ -96,6 +927,574 @@
 Lloydminster, AB T9V 2W9</t>
   </si>
   <si>
+    <t>9560 Yellowhead Tr
+Edmonton, AB T5G 0W4</t>
+  </si>
+  <si>
+    <t>20 Oswald Dr
+Spruce Grove, AB T7X 3A4</t>
+  </si>
+  <si>
+    <t>6102 46A St
+Leduc, AB T9E 7A7</t>
+  </si>
+  <si>
+    <t>2-9820 47 Ave NW
+Edmonton, AB T6E 5P3</t>
+  </si>
+  <si>
+    <t>12552 133 St NW
+Edmonton, AB T5L 4R5</t>
+  </si>
+  <si>
+    <t>9010 58 Avenue NW
+Edmonton, AB T6E 6A9</t>
+  </si>
+  <si>
+    <t>4912 74 Ave NW
+Edmonton, AB T6B 2H6</t>
+  </si>
+  <si>
+    <t>8550 Yellowhead Tr
+Edmonton, AB T5B 1G6</t>
+  </si>
+  <si>
+    <t>7770 40 Ave
+Red Deer, AB T4P 2H9</t>
+  </si>
+  <si>
+    <t>11237 120 St
+Edmonton, AB T5G 2X9</t>
+  </si>
+  <si>
+    <t>10003 169 St
+Edmonton, AB T5P 4M9</t>
+  </si>
+  <si>
+    <t>53202-A, Range Road 180
+Edson, AB T7E 3M2</t>
+  </si>
+  <si>
+    <t>376 St Albert Rd
+St Albert, AB T8N 2X1</t>
+  </si>
+  <si>
+    <t>102-10436 81 Ave
+Edmonton, AB T6E 1X6</t>
+  </si>
+  <si>
+    <t>11313 170 St
+Edmonton, AB T5M 3P5</t>
+  </si>
+  <si>
+    <t>2 99 East Lake Crescent NE
+Airdrie, AB T4A 0C3</t>
+  </si>
+  <si>
+    <t>6155 99 Street
+Edmonton, AB T6E 3P1</t>
+  </si>
+  <si>
+    <t>10152 179 St NW
+Edmonton, AB T5S 1S1</t>
+  </si>
+  <si>
+    <t>9710 35 Ave NW
+Edmonton, AB T6E 6J6</t>
+  </si>
+  <si>
+    <t>4105 57 Ave
+Provost, AB T0B 3S0</t>
+  </si>
+  <si>
+    <t>Fort Saskatchewan, AB T8L 2C9</t>
+  </si>
+  <si>
+    <t>5830 99 St NW
+Edmonton, AB T6E 3N9</t>
+  </si>
+  <si>
+    <t>102-121 Clearwill Avenue
+Red Deer County, AB T4E 0A1</t>
+  </si>
+  <si>
+    <t>5827 90 St
+Edmonton, AB T6E 6C2</t>
+  </si>
+  <si>
+    <t>9251 50 St NW
+Edmonton, AB T6B 3B6</t>
+  </si>
+  <si>
+    <t>11-7429 49 Ave
+Red Deer, AB T4P 1N2</t>
+  </si>
+  <si>
+    <t>10777 180 St
+Edmonton, AB T5S 1G6</t>
+  </si>
+  <si>
+    <t>10 Automall Rd
+Sherwood Park, AB T8H 2N1</t>
+  </si>
+  <si>
+    <t>145 East Lake Boulevard NE
+Airdrie, AB T4A 1A1</t>
+  </si>
+  <si>
+    <t>11520 184 St NW
+Edmonton, AB T5S 2W7</t>
+  </si>
+  <si>
+    <t>6206 97 St
+Edmonton, AB T6E 3J6</t>
+  </si>
+  <si>
+    <t>11 First St W
+Gainford, AB T0E 0W0</t>
+  </si>
+  <si>
+    <t>13309 126 Ave
+Edmonton, AB T5L 3C9</t>
+  </si>
+  <si>
+    <t>2687 96 St NW
+Edmonton, AB T6N 1C3</t>
+  </si>
+  <si>
+    <t>4517 47 Ave
+Vermilion, AB T9X 1H9</t>
+  </si>
+  <si>
+    <t>9503 42 Ave NW
+Edmonton, AB T6E 5R2</t>
+  </si>
+  <si>
+    <t>417 Lantern Street
+Red Deer County, AB T4E 0A5</t>
+  </si>
+  <si>
+    <t>9138 Yellowhead Trail
+Edmonton, AB T5B 1G2</t>
+  </si>
+  <si>
+    <t>15691 116 Ave
+Edmonton, AB T5M 3W1</t>
+  </si>
+  <si>
+    <t>4-6850 52 Ave
+Red Deer, AB T4N 4L1</t>
+  </si>
+  <si>
+    <t>52073 Range Rd 221
+Sherwood Park, AB T8E 1C6</t>
+  </si>
+  <si>
+    <t>#3 4630 61st Street
+Red Deer, AB T4N2R2</t>
+  </si>
+  <si>
+    <t>452 St Albert Trail
+St Albert, AB T8N 5J9</t>
+  </si>
+  <si>
+    <t>15833 Stony Plain Rd NW
+Edmonton, AB T5P 3Z7</t>
+  </si>
+  <si>
+    <t>4717 99 St
+Edmonton, AB T6E 4Y1</t>
+  </si>
+  <si>
+    <t>14825 - 123 Ave.
+Edmonton, AB T5L 2Y7</t>
+  </si>
+  <si>
+    <t>2910 50 Ave
+Lloydminster, AB T9V 2S5</t>
+  </si>
+  <si>
+    <t>16104 114 Ave
+Edmonton, AB T5M 2Z5</t>
+  </si>
+  <si>
+    <t>11404 156 St NW
+Edmonton, AB T5M 3N2</t>
+  </si>
+  <si>
+    <t>Bay 3-8 Reil Dr
+St. Albert, AB T8N 3Z7</t>
+  </si>
+  <si>
+    <t>13344 97 St NW
+Edmonton, AB T5E 4C9</t>
+  </si>
+  <si>
+    <t>2517 Hwy 633
+Onoway, AB T0E 1V0</t>
+  </si>
+  <si>
+    <t>6-6630 71 St
+Red Deer, AB T4P 3Y7</t>
+  </si>
+  <si>
+    <t>9943 69 Ave
+Edmonton, AB T6E 0T1</t>
+  </si>
+  <si>
+    <t>12541 133 St NW
+Edmonton, AB T5L 1S5</t>
+  </si>
+  <si>
+    <t>17108 107 Ave
+Edmonton, AB T5S 1L8</t>
+  </si>
+  <si>
+    <t>6203 29 Avenue
+Beaumont, AB T4X 0H5</t>
+  </si>
+  <si>
+    <t>4934 Terwillegar
+Edmonton, AB T6R 0S3</t>
+  </si>
+  <si>
+    <t>12208 118 Ave
+Edmonton, AB T5L 2K1</t>
+  </si>
+  <si>
+    <t>6703 82 Ave NW
+Edmonton, AB T6B 0E9</t>
+  </si>
+  <si>
+    <t>13005 97 St
+Edmonton, AB T5E 4C4</t>
+  </si>
+  <si>
+    <t>3920 56 St
+Wetaskiwin, AB T9A 2B2</t>
+  </si>
+  <si>
+    <t>7-4403 56 Avenue
+Leduc, AB T9E 6T7</t>
+  </si>
+  <si>
+    <t>6220 48 Ave
+Ponoka, AB T4J 1K3</t>
+  </si>
+  <si>
+    <t>16623 111 Ave NW
+Edmonton, AB T5M 2S2</t>
+  </si>
+  <si>
+    <t>120-11870 88 Ave
+Fort Saskatchewan, AB T8L 0K1</t>
+  </si>
+  <si>
+    <t>5701 47 St
+Leduc, AB T9E 7A1</t>
+  </si>
+  <si>
+    <t>13340 119 St
+Edmonton, AB T5E 5M8</t>
+  </si>
+  <si>
+    <t>4113D 44 Ave
+Camrose, AB T4V 5H2</t>
+  </si>
+  <si>
+    <t>2502 50 Ave
+Lloydminster, AB T9V 2S3</t>
+  </si>
+  <si>
+    <t>11311 143 St
+Edmonton, AB T5M 3P8</t>
+  </si>
+  <si>
+    <t>7220 76 Avenue
+Edmonton, AB T6B 0B2</t>
+  </si>
+  <si>
+    <t>983 Fir St
+Sherwood Park, AB T8A 4N5</t>
+  </si>
+  <si>
+    <t>12527 - 127 St
+Edmonton, AB T5L 1A3</t>
+  </si>
+  <si>
+    <t>6607 Sparrow Dr
+Leduc, AB T9E 7L1</t>
+  </si>
+  <si>
+    <t>13007 Fort Rd
+Edmonton, AB T5A 1B6</t>
+  </si>
+  <si>
+    <t>4603 50th Avenue
+Lloydminster, SK S9V 0P4</t>
+  </si>
+  <si>
+    <t>3829 49 Ave
+Stony Plain, AB T7Z 1C3</t>
+  </si>
+  <si>
+    <t>14530 118 Ave
+Edmonton, AB T5L 2M8</t>
+  </si>
+  <si>
+    <t>9751 34 Ave
+Edmonton, AB T6E 5X9</t>
+  </si>
+  <si>
+    <t>35-4004 97 St
+Edmonton, AB T6E 6N1</t>
+  </si>
+  <si>
+    <t>5908 82 Ave
+Edmonton, AB T6B 0E7</t>
+  </si>
+  <si>
+    <t>16217 Stony Plain Rd
+Edmonton, AB T5P 4A3</t>
+  </si>
+  <si>
+    <t>8025 118 Avenue
+Edmonton, AB T5B 0R7</t>
+  </si>
+  <si>
+    <t>5644 53 Ave
+Edmonton, AB T6B 3K1</t>
+  </si>
+  <si>
+    <t>261 Kaska Rd
+Sherwood Park, AB T8A 4E8</t>
+  </si>
+  <si>
+    <t>4915 51 Ave
+Wabamun, AB T0E 2K0</t>
+  </si>
+  <si>
+    <t>1975 50 Ave
+Red Deer, AB T4R 1Z4</t>
+  </si>
+  <si>
+    <t>24 East Lake Green
+Airdrie, AB T4A 2J2</t>
+  </si>
+  <si>
+    <t>151-26229 Twp Rd 531A
+Acheson, AB T7X 5A4</t>
+  </si>
+  <si>
+    <t>1 52505 RR 214
+Ardrossan, AB T8E 2G9</t>
+  </si>
+  <si>
+    <t>7119 104 St NW
+Edmonton, AB T6E 4B7</t>
+  </si>
+  <si>
+    <t>11703 Groat Rd
+Edmonton, AB T5M 3K6</t>
+  </si>
+  <si>
+    <t>PO Box 67
+Vegreville, AB T9C 1R1</t>
+  </si>
+  <si>
+    <t>4938 54 Ave
+Red Deer, AB T4N 5K8</t>
+  </si>
+  <si>
+    <t>12986 50 St
+Edmonton, AB T5A 4L2</t>
+  </si>
+  <si>
+    <t>16834 110 Ave
+Edmonton, AB T5P 1G9</t>
+  </si>
+  <si>
+    <t>12545 125 St
+Edmonton, AB T5L 0T4</t>
+  </si>
+  <si>
+    <t>11220 149 Street NW
+Edmonton, AB T5M 1W5</t>
+  </si>
+  <si>
+    <t>9512 103 Avenue NW
+Edmonton, AB T5H 0G9</t>
+  </si>
+  <si>
+    <t>20412 107 Ave
+Edmonton, AB T5S 2G6</t>
+  </si>
+  <si>
+    <t>6159 99 Street
+Edmonton, AB T6E 3P1</t>
+  </si>
+  <si>
+    <t>11213 88 Ave
+Fort Saskatchewan, AB T8L 2X4</t>
+  </si>
+  <si>
+    <t>10010 168 St
+Edmonton, AB T5P 3W8</t>
+  </si>
+  <si>
+    <t>9904 75 Ave NW
+Edmonton, AB T6E 1J2</t>
+  </si>
+  <si>
+    <t>5804 50 Ave
+Red Deer, AB T4N 4C2</t>
+  </si>
+  <si>
+    <t>10031 167 St
+Edmonton, AB T5P 3W3</t>
+  </si>
+  <si>
+    <t>8-7887 49 Ave
+Red Deer, AB T4P 2B4</t>
+  </si>
+  <si>
+    <t>6905 Voyageur Way
+Cold Lake, AB T9M 0K5</t>
+  </si>
+  <si>
+    <t>105 6 Ave
+Thorhild, AB T0A 3J0</t>
+  </si>
+  <si>
+    <t>10351 61 Ave
+Edmonton, AB T6H 1L1</t>
+  </si>
+  <si>
+    <t>4004 51st
+Stony Plain, AB T7Z 0A2</t>
+  </si>
+  <si>
+    <t>524 Centre Ave E
+Airdrie, AB T4B 1P9</t>
+  </si>
+  <si>
+    <t>7110 98 Ave
+Edmonton, AB T6A 0A7</t>
+  </si>
+  <si>
+    <t>8733 50 St
+Edmonton, AB T6B 1E7</t>
+  </si>
+  <si>
+    <t>5304 55A St
+Cold Lake, AB T9M 1R3</t>
+  </si>
+  <si>
+    <t>9916 109 St NW
+Edmonton, AB T5K 1H5</t>
+  </si>
+  <si>
+    <t>10550 116 St
+Edmonton, AB T5H 3L8</t>
+  </si>
+  <si>
+    <t>7316 76 Ave NW
+Edmonton, AB T6B 0B3</t>
+  </si>
+  <si>
+    <t>3116 50 Ave
+Lloydminster, AB T9V 1H4</t>
+  </si>
+  <si>
+    <t>9340 31 Ave NW
+Edmonton, AB T6N 1C4</t>
+  </si>
+  <si>
+    <t>7828 104 St
+Edmonton, AB T6E 4C8</t>
+  </si>
+  <si>
+    <t>15620 131 Ave NW
+Edmonton, AB T5V 0A9</t>
+  </si>
+  <si>
+    <t>5205 65 St
+Lloydminster, AB T9V 2E8</t>
+  </si>
+  <si>
+    <t>9639 54 Ave
+Edmonton, AB T6E 5N7</t>
+  </si>
+  <si>
+    <t>16157 142 St NW
+Edmonton, AB T6V 1H8</t>
+  </si>
+  <si>
+    <t>4645 62 Street
+Red Deer, AB T4N 2R4</t>
+  </si>
+  <si>
+    <t>5521 3 Ave
+Edson, AB T7E 1L5</t>
+  </si>
+  <si>
+    <t>300-16 Renault Cres
+St Albert, AB T8N 4B8</t>
+  </si>
+  <si>
+    <t>105 Ordze Ave
+Sherwood Park, AB T8B 1M6</t>
+  </si>
+  <si>
+    <t>8401 112 Street
+Grande Prairie, AB T8V 6A4</t>
+  </si>
+  <si>
+    <t>15923 Stony Plain Rd NW
+Edmonton, AB T5P 3Z7</t>
+  </si>
+  <si>
+    <t>16126 Stony Plain Rd
+Edmonton, AB T5P 4A2</t>
+  </si>
+  <si>
+    <t>Box 869
+10301 100 Ave
+Morinville, AB T8R 1P9</t>
+  </si>
+  <si>
+    <t>12514 128 st NW
+Edmonton, AB T5L 1C8</t>
+  </si>
+  <si>
+    <t>18010 Stony Plain Road
+Edmonton, AB T5S 1N4</t>
+  </si>
+  <si>
+    <t>55317 Rge Rd 254
+Sturgeon County, AB T8R 0S1</t>
+  </si>
+  <si>
+    <t>6932 76 Ave
+Edmonton, AB T6B 2R2</t>
+  </si>
+  <si>
+    <t>9913 77 Ave
+Edmonton, AB T6E 1M6</t>
+  </si>
+  <si>
+    <t>14846 112 Ave NW
+Edmonton, AB T5M 2T9</t>
+  </si>
+  <si>
+    <t>14111 127 St
+Edmonton, AB T6V 1E7</t>
+  </si>
+  <si>
+    <t>402-75th St
+Edson, AB T7E 1V8</t>
+  </si>
+  <si>
     <t>https://www.bbb.org/ca/ab/red-deer/profile/auto/busted-knuckle-auto-repair-0117-226306/email-this-business?email=primary</t>
   </si>
   <si>
@@ -114,6 +1513,402 @@
     <t>https://www.bbb.org/ca/ab/lloydminster/profile/tire-dealers/ward-tirecraft-lloydminster-0117-104389/email-this-business?email=primary</t>
   </si>
   <si>
+    <t>http://www.caddyauto.com/</t>
+  </si>
+  <si>
+    <t>tel:780-962-4097</t>
+  </si>
+  <si>
+    <t>http://www.leducchrysler.com/</t>
+  </si>
+  <si>
+    <t>https://www.gearupautoservice.com/</t>
+  </si>
+  <si>
+    <t>https://www.danmarautomotive.com/</t>
+  </si>
+  <si>
+    <t>http://www.computerizedautopro.com/</t>
+  </si>
+  <si>
+    <t>http://www.schwabesauto.ca/</t>
+  </si>
+  <si>
+    <t>http://www.fountaintire.com/</t>
+  </si>
+  <si>
+    <t>http://www.a1willyspartsplace.ca/</t>
+  </si>
+  <si>
+    <t>tel:780-455-3773</t>
+  </si>
+  <si>
+    <t>http://www.oktire.com/</t>
+  </si>
+  <si>
+    <t>https://pistonpete.ca/</t>
+  </si>
+  <si>
+    <t>https://www.trailtire.com/</t>
+  </si>
+  <si>
+    <t>http://pureexecutiveauto.ca/</t>
+  </si>
+  <si>
+    <t>https://www.firsttruck.ca/</t>
+  </si>
+  <si>
+    <t>http://brockwaysauto.com/</t>
+  </si>
+  <si>
+    <t>http://www.actionmuffleredmonton.com/</t>
+  </si>
+  <si>
+    <t>http://www.westsidemitsubishi.com/</t>
+  </si>
+  <si>
+    <t>https://www.gomazda.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/provost/profile/brake-service/mechanix-auto-centre-inc-0117-183892/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>tel:780-998-2036</t>
+  </si>
+  <si>
+    <t>https://alltypesautomotiveservices.ca/</t>
+  </si>
+  <si>
+    <t>http://www.excelrepair.ca/</t>
+  </si>
+  <si>
+    <t>tel:780-468-9429</t>
+  </si>
+  <si>
+    <t>https://www.customexhaustedmonton.com/</t>
+  </si>
+  <si>
+    <t>http://www.stirlingauto.ca/</t>
+  </si>
+  <si>
+    <t>http://edbrakeclutch.ca/</t>
+  </si>
+  <si>
+    <t>http://www.sherwoodbuickgmc.com/index.htm</t>
+  </si>
+  <si>
+    <t>http://smartauto.ca/</t>
+  </si>
+  <si>
+    <t>http://www.icgb.ca/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/M-L-Automotive/583015881866667</t>
+  </si>
+  <si>
+    <t>tel:780-892-3730</t>
+  </si>
+  <si>
+    <t>tel:780-451-6877</t>
+  </si>
+  <si>
+    <t>https://www.arauto.ca/</t>
+  </si>
+  <si>
+    <t>tel:780-853-5550</t>
+  </si>
+  <si>
+    <t>http://www.megasell.ca/</t>
+  </si>
+  <si>
+    <t>https://www.camclarkfordreddeer.com/</t>
+  </si>
+  <si>
+    <t>tel:780-471-5515</t>
+  </si>
+  <si>
+    <t>http://www.actionbrakeandmechanical.ca/</t>
+  </si>
+  <si>
+    <t>tel:403-343-2992</t>
+  </si>
+  <si>
+    <t>http://www.smittysauto.mechanicnet.com/</t>
+  </si>
+  <si>
+    <t>https://www.dasautoreddeer.ca/</t>
+  </si>
+  <si>
+    <t>http://www.stalberttuneup.ca/</t>
+  </si>
+  <si>
+    <t>http://www.thetirewarehouse.com/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/durans-auto-mechanic-services-inc-0117-157892/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>tel:780-875-9629</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>http://www.kingsgateauto.com/</t>
+  </si>
+  <si>
+    <t>tel:780-418-3050</t>
+  </si>
+  <si>
+    <t>http://www.kentwoodford.com/</t>
+  </si>
+  <si>
+    <t>http://jacksautobody.ca/</t>
+  </si>
+  <si>
+    <t>https://ankyloautomotive.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t>tel:780-988-5119</t>
+  </si>
+  <si>
+    <t>tel:780-454-5530</t>
+  </si>
+  <si>
+    <t>tel:780-929-9260</t>
+  </si>
+  <si>
+    <t>http://www.tireb.ca/</t>
+  </si>
+  <si>
+    <t>http://tirecraft.com/</t>
+  </si>
+  <si>
+    <t>https://www.oktire.com/stores/ok-tire-edmonton-whyte-avenue/</t>
+  </si>
+  <si>
+    <t>http://www.speedy.com/</t>
+  </si>
+  <si>
+    <t>https://www.legacydodgewetaskiwin.com/</t>
+  </si>
+  <si>
+    <t>tel:780-986-4577</t>
+  </si>
+  <si>
+    <t>tel:403-783-3998</t>
+  </si>
+  <si>
+    <t>http://www.bertsautoandtires.ca/</t>
+  </si>
+  <si>
+    <t>https://www.trinityautomotiveservice.com/</t>
+  </si>
+  <si>
+    <t>https://tischerautopro.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/kensington-auto-repair-0117-139928/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://andautocamrose.com/about-and-automotive/</t>
+  </si>
+  <si>
+    <t>https://www.boundaryford.com/</t>
+  </si>
+  <si>
+    <t>tel:780-454-1144</t>
+  </si>
+  <si>
+    <t>https://www.brucestewartautorepair.com/</t>
+  </si>
+  <si>
+    <t>http://www.parkmazda.ca/</t>
+  </si>
+  <si>
+    <t>tel:780-451-0212</t>
+  </si>
+  <si>
+    <t>tel:780-980-0039</t>
+  </si>
+  <si>
+    <t>http://www.trailtire.com/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/sk/lloydminster/profile/auto-repair/daves-auto-service-experts-2015-inc-0117-107133/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://www.integratire.com/</t>
+  </si>
+  <si>
+    <t>tel:780-451-0691</t>
+  </si>
+  <si>
+    <t>http://www.capitalgmcbuick.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/alberta-motorworks-ltd-0117-112196/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>tel:780-465-5571</t>
+  </si>
+  <si>
+    <t>tel:780-484-6500</t>
+  </si>
+  <si>
+    <t>tel:780-471-5828</t>
+  </si>
+  <si>
+    <t>http://bvas.mechanicnet.com/</t>
+  </si>
+  <si>
+    <t>http://www.robinsautomotive.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/wabamun/profile/auto-repair/trades-automotive-welding-ltd-0117-103321/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://www.standfast.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/acheson/profile/auto-repair/pag-automotive-services-ltd-0117-149857/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>https://www.nathansgarage.ca/</t>
+  </si>
+  <si>
+    <t>tel:780-437-3617</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/vegreville/profile/auto-repair/vegreville-mechanical-ltd-0117-108142/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>https://www.dicksautoandtruckrepair.com/</t>
+  </si>
+  <si>
+    <t>tel:780-478-2333</t>
+  </si>
+  <si>
+    <t>tel:780-455-1475</t>
+  </si>
+  <si>
+    <t>https://www.dottransmissions.ca/</t>
+  </si>
+  <si>
+    <t>https://www.aplusautoservice.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/four-star-auto-repair-centre-0117-108721/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-body-repair-and-painting/toms-auto-care-0117-112992/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/fort-saskatchewan/profile/muffler/minute-muffler-brake-0117-148585/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://westside-automotive.com/</t>
+  </si>
+  <si>
+    <t>http://myautoimports.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/red-deer/profile/muffler/midas-auto-service-experts-0117-104173/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://www.zippysautorepair.com/</t>
+  </si>
+  <si>
+    <t>https://peak-auto-services-ltd.business.site/</t>
+  </si>
+  <si>
+    <t>http://www.lakecitygm.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WindsorCarClinic/</t>
+  </si>
+  <si>
+    <t>http://www.stonyplainchrysler.com/</t>
+  </si>
+  <si>
+    <t>http://www.wbauto.ca/</t>
+  </si>
+  <si>
+    <t>http://www.legendauto.ca/</t>
+  </si>
+  <si>
+    <t>tel:780-468-2138</t>
+  </si>
+  <si>
+    <t>https://www.jmautomotive.ca/</t>
+  </si>
+  <si>
+    <t>https://www.centraltire.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/tanzam-auto-centre-0117-103021/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://www.alloutautorepair.ca/</t>
+  </si>
+  <si>
+    <t>tel:780-938-8799</t>
+  </si>
+  <si>
+    <t>tel:780-433-1720</t>
+  </si>
+  <si>
+    <t>tel:780-875-7712</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-maintenance/kt-motors-0117-192159/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>https://www.tichiautomotive.ca/</t>
+  </si>
+  <si>
+    <t>https://mikasaautomotive.com/</t>
+  </si>
+  <si>
+    <t>tel:780-723-4507</t>
+  </si>
+  <si>
+    <t>http://ricksauto.biz/</t>
+  </si>
+  <si>
+    <t>http://www.truckzone.ca/</t>
+  </si>
+  <si>
+    <t>http://www.napaautopro.com/</t>
+  </si>
+  <si>
+    <t>http://www.midas.com/edmonton/store.aspx?shopnum=9352&amp;dmanum=280001</t>
+  </si>
+  <si>
+    <t>tel:780-939-2200</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-repair/kaz-solution-auto-0117-165482/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://www.westendnissan.com/</t>
+  </si>
+  <si>
+    <t>http://www.ablautoelectric.com/</t>
+  </si>
+  <si>
+    <t>http://goodnewsauto.ca/</t>
+  </si>
+  <si>
+    <t>tel:780-433-6767</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/ab/edmonton/profile/auto-services/hitec-fuel-systems-0117-107558/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>https://www.edsonchryslerdodgejeepram.com/</t>
+  </si>
+  <si>
     <t>14038775999</t>
   </si>
   <si>
@@ -132,6 +1927,423 @@
     <t>17808758473</t>
   </si>
   <si>
+    <t>17804772050</t>
+  </si>
+  <si>
+    <t>17809624097</t>
+  </si>
+  <si>
+    <t>17809862051</t>
+  </si>
+  <si>
+    <t>17804391046</t>
+  </si>
+  <si>
+    <t>17804536225</t>
+  </si>
+  <si>
+    <t>17804684227</t>
+  </si>
+  <si>
+    <t>17804653336</t>
+  </si>
+  <si>
+    <t>17804748201</t>
+  </si>
+  <si>
+    <t>14033467278</t>
+  </si>
+  <si>
+    <t>17804553773</t>
+  </si>
+  <si>
+    <t>17804832211</t>
+  </si>
+  <si>
+    <t>17807250384</t>
+  </si>
+  <si>
+    <t>17804603673</t>
+  </si>
+  <si>
+    <t>17802385454</t>
+  </si>
+  <si>
+    <t>17804838400</t>
+  </si>
+  <si>
+    <t>14039482225</t>
+  </si>
+  <si>
+    <t>17804654545</t>
+  </si>
+  <si>
+    <t>17804810924</t>
+  </si>
+  <si>
+    <t>17804369970</t>
+  </si>
+  <si>
+    <t>17807533004</t>
+  </si>
+  <si>
+    <t>17809982036</t>
+  </si>
+  <si>
+    <t>17802225263</t>
+  </si>
+  <si>
+    <t>14033424440</t>
+  </si>
+  <si>
+    <t>17804689429</t>
+  </si>
+  <si>
+    <t>17804686464</t>
+  </si>
+  <si>
+    <t>14033400306</t>
+  </si>
+  <si>
+    <t>17804840067</t>
+  </si>
+  <si>
+    <t>17804645123</t>
+  </si>
+  <si>
+    <t>14039480400</t>
+  </si>
+  <si>
+    <t>18666522202</t>
+  </si>
+  <si>
+    <t>17804311826</t>
+  </si>
+  <si>
+    <t>17808923730</t>
+  </si>
+  <si>
+    <t>17804516877</t>
+  </si>
+  <si>
+    <t>17804683052</t>
+  </si>
+  <si>
+    <t>17808535550</t>
+  </si>
+  <si>
+    <t>17802000105</t>
+  </si>
+  <si>
+    <t>14033433673</t>
+  </si>
+  <si>
+    <t>17804715515</t>
+  </si>
+  <si>
+    <t>17809441213</t>
+  </si>
+  <si>
+    <t>14033432992</t>
+  </si>
+  <si>
+    <t>17809223418</t>
+  </si>
+  <si>
+    <t>14033464287</t>
+  </si>
+  <si>
+    <t>17804598100</t>
+  </si>
+  <si>
+    <t>17804897703</t>
+  </si>
+  <si>
+    <t>17804374555</t>
+  </si>
+  <si>
+    <t>17804831118</t>
+  </si>
+  <si>
+    <t>17808759629</t>
+  </si>
+  <si>
+    <t>17804831429</t>
+  </si>
+  <si>
+    <t>17804183050</t>
+  </si>
+  <si>
+    <t>17804768600</t>
+  </si>
+  <si>
+    <t>17809675850</t>
+  </si>
+  <si>
+    <t>14038962800</t>
+  </si>
+  <si>
+    <t>17809885119</t>
+  </si>
+  <si>
+    <t>17804545530</t>
+  </si>
+  <si>
+    <t>17804844700</t>
+  </si>
+  <si>
+    <t>17809299260</t>
+  </si>
+  <si>
+    <t>17808875330</t>
+  </si>
+  <si>
+    <t>17804546654</t>
+  </si>
+  <si>
+    <t>17804667677</t>
+  </si>
+  <si>
+    <t>17804751666</t>
+  </si>
+  <si>
+    <t>17803522277</t>
+  </si>
+  <si>
+    <t>17809864577</t>
+  </si>
+  <si>
+    <t>14037833998</t>
+  </si>
+  <si>
+    <t>17804841034</t>
+  </si>
+  <si>
+    <t>17809539795</t>
+  </si>
+  <si>
+    <t>17809862211</t>
+  </si>
+  <si>
+    <t>17804548308</t>
+  </si>
+  <si>
+    <t>15873860100</t>
+  </si>
+  <si>
+    <t>17808727755</t>
+  </si>
+  <si>
+    <t>17804541144</t>
+  </si>
+  <si>
+    <t>17804652783</t>
+  </si>
+  <si>
+    <t>17804640668</t>
+  </si>
+  <si>
+    <t>17804510212</t>
+  </si>
+  <si>
+    <t>17809800039</t>
+  </si>
+  <si>
+    <t>17804753673</t>
+  </si>
+  <si>
+    <t>13068252484</t>
+  </si>
+  <si>
+    <t>17809638229</t>
+  </si>
+  <si>
+    <t>17804510691</t>
+  </si>
+  <si>
+    <t>17804354000</t>
+  </si>
+  <si>
+    <t>17804669140</t>
+  </si>
+  <si>
+    <t>17804655571</t>
+  </si>
+  <si>
+    <t>17804846500</t>
+  </si>
+  <si>
+    <t>17804715828</t>
+  </si>
+  <si>
+    <t>17804309045</t>
+  </si>
+  <si>
+    <t>17804676006</t>
+  </si>
+  <si>
+    <t>17808924500</t>
+  </si>
+  <si>
+    <t>14033475501</t>
+  </si>
+  <si>
+    <t>14039486122</t>
+  </si>
+  <si>
+    <t>17809600902</t>
+  </si>
+  <si>
+    <t>17809063661</t>
+  </si>
+  <si>
+    <t>17804373617</t>
+  </si>
+  <si>
+    <t>17804550848</t>
+  </si>
+  <si>
+    <t>17806324140</t>
+  </si>
+  <si>
+    <t>14033476055</t>
+  </si>
+  <si>
+    <t>17804782333</t>
+  </si>
+  <si>
+    <t>17804551475</t>
+  </si>
+  <si>
+    <t>17804533516</t>
+  </si>
+  <si>
+    <t>17804211870</t>
+  </si>
+  <si>
+    <t>17804880422</t>
+  </si>
+  <si>
+    <t>17804368660</t>
+  </si>
+  <si>
+    <t>17809921449</t>
+  </si>
+  <si>
+    <t>17804898021</t>
+  </si>
+  <si>
+    <t>17804312828</t>
+  </si>
+  <si>
+    <t>14033149963</t>
+  </si>
+  <si>
+    <t>17804471362</t>
+  </si>
+  <si>
+    <t>14033478785</t>
+  </si>
+  <si>
+    <t>17805943362</t>
+  </si>
+  <si>
+    <t>17803982550</t>
+  </si>
+  <si>
+    <t>17809632236</t>
+  </si>
+  <si>
+    <t>14039487247</t>
+  </si>
+  <si>
+    <t>17804683431</t>
+  </si>
+  <si>
+    <t>17804682138</t>
+  </si>
+  <si>
+    <t>17805949980</t>
+  </si>
+  <si>
+    <t>17804248616</t>
+  </si>
+  <si>
+    <t>17804555900</t>
+  </si>
+  <si>
+    <t>17804662660</t>
+  </si>
+  <si>
+    <t>17808757022</t>
+  </si>
+  <si>
+    <t>17809388799</t>
+  </si>
+  <si>
+    <t>17804331720</t>
+  </si>
+  <si>
+    <t>17804471893</t>
+  </si>
+  <si>
+    <t>17808757712</t>
+  </si>
+  <si>
+    <t>17803283830</t>
+  </si>
+  <si>
+    <t>17804567844</t>
+  </si>
+  <si>
+    <t>14033485858</t>
+  </si>
+  <si>
+    <t>17807234507</t>
+  </si>
+  <si>
+    <t>17804181066</t>
+  </si>
+  <si>
+    <t>17804678077</t>
+  </si>
+  <si>
+    <t>17805320395</t>
+  </si>
+  <si>
+    <t>17804848996</t>
+  </si>
+  <si>
+    <t>17804840011</t>
+  </si>
+  <si>
+    <t>17809392200</t>
+  </si>
+  <si>
+    <t>17807563080</t>
+  </si>
+  <si>
+    <t>17804861780</t>
+  </si>
+  <si>
+    <t>17809394656</t>
+  </si>
+  <si>
+    <t>17804851993</t>
+  </si>
+  <si>
+    <t>17804336767</t>
+  </si>
+  <si>
+    <t>17804542203</t>
+  </si>
+  <si>
+    <t>17804728473</t>
+  </si>
+  <si>
+    <t>17807239500</t>
+  </si>
+  <si>
     <t>28/8/2016</t>
   </si>
   <si>
@@ -148,6 +2360,399 @@
   </si>
   <si>
     <t>12/12/1991</t>
+  </si>
+  <si>
+    <t>31/12/2003</t>
+  </si>
+  <si>
+    <t>13/5/1976</t>
+  </si>
+  <si>
+    <t>18/6/1975</t>
+  </si>
+  <si>
+    <t>28/5/2000</t>
+  </si>
+  <si>
+    <t>24/4/2003</t>
+  </si>
+  <si>
+    <t>5/2/1985</t>
+  </si>
+  <si>
+    <t>17/9/1968</t>
+  </si>
+  <si>
+    <t>27/6/1996</t>
+  </si>
+  <si>
+    <t>28/3/1990</t>
+  </si>
+  <si>
+    <t>3/5/1999</t>
+  </si>
+  <si>
+    <t>3/12/1997</t>
+  </si>
+  <si>
+    <t>7/12/2020</t>
+  </si>
+  <si>
+    <t>9/2/1997</t>
+  </si>
+  <si>
+    <t>7/10/2015</t>
+  </si>
+  <si>
+    <t>11/4/2003</t>
+  </si>
+  <si>
+    <t>30/11/2020</t>
+  </si>
+  <si>
+    <t>3/8/1995</t>
+  </si>
+  <si>
+    <t>3/12/2002</t>
+  </si>
+  <si>
+    <t>6/10/2008</t>
+  </si>
+  <si>
+    <t>26/7/2015</t>
+  </si>
+  <si>
+    <t>31/12/1982</t>
+  </si>
+  <si>
+    <t>20/1/2020</t>
+  </si>
+  <si>
+    <t>14/3/2021</t>
+  </si>
+  <si>
+    <t>12/5/2009</t>
+  </si>
+  <si>
+    <t>28/2/2005</t>
+  </si>
+  <si>
+    <t>27/4/1998</t>
+  </si>
+  <si>
+    <t>27/10/1981</t>
+  </si>
+  <si>
+    <t>22/5/1984</t>
+  </si>
+  <si>
+    <t>21/1/1996</t>
+  </si>
+  <si>
+    <t>1/11/2015</t>
+  </si>
+  <si>
+    <t>14/6/1989</t>
+  </si>
+  <si>
+    <t>5/12/2010</t>
+  </si>
+  <si>
+    <t>20/4/1998</t>
+  </si>
+  <si>
+    <t>10/12/1987</t>
+  </si>
+  <si>
+    <t>12/12/2000</t>
+  </si>
+  <si>
+    <t>18/8/2019</t>
+  </si>
+  <si>
+    <t>15/5/1983</t>
+  </si>
+  <si>
+    <t>8/12/1998</t>
+  </si>
+  <si>
+    <t>15/10/1997</t>
+  </si>
+  <si>
+    <t>23/4/1998</t>
+  </si>
+  <si>
+    <t>1/1/2008</t>
+  </si>
+  <si>
+    <t>14/10/1993</t>
+  </si>
+  <si>
+    <t>14/3/1982</t>
+  </si>
+  <si>
+    <t>24/7/1979</t>
+  </si>
+  <si>
+    <t>15/10/2010</t>
+  </si>
+  <si>
+    <t>14/3/2006</t>
+  </si>
+  <si>
+    <t>24/5/2004</t>
+  </si>
+  <si>
+    <t>20/4/1994</t>
+  </si>
+  <si>
+    <t>1/3/2009</t>
+  </si>
+  <si>
+    <t>9/4/1996</t>
+  </si>
+  <si>
+    <t>5/5/2009</t>
+  </si>
+  <si>
+    <t>12/8/2018</t>
+  </si>
+  <si>
+    <t>7/5/1998</t>
+  </si>
+  <si>
+    <t>14/11/2003</t>
+  </si>
+  <si>
+    <t>4717 99 St, Edmonton, AB T6E 4Y1</t>
+  </si>
+  <si>
+    <t>14/6/2010</t>
+  </si>
+  <si>
+    <t>23/1/2020</t>
+  </si>
+  <si>
+    <t>31/7/2007</t>
+  </si>
+  <si>
+    <t>1/2/1990</t>
+  </si>
+  <si>
+    <t>16/11/2005</t>
+  </si>
+  <si>
+    <t>19/12/2016</t>
+  </si>
+  <si>
+    <t>24/11/1996</t>
+  </si>
+  <si>
+    <t>4/11/1975</t>
+  </si>
+  <si>
+    <t>19/8/2018</t>
+  </si>
+  <si>
+    <t>6/7/1998</t>
+  </si>
+  <si>
+    <t>28/6/2005</t>
+  </si>
+  <si>
+    <t>11/12/2019</t>
+  </si>
+  <si>
+    <t>1/7/2014</t>
+  </si>
+  <si>
+    <t>30/6/1976</t>
+  </si>
+  <si>
+    <t>24/9/1992</t>
+  </si>
+  <si>
+    <t>11/9/2003</t>
+  </si>
+  <si>
+    <t>17/5/2003</t>
+  </si>
+  <si>
+    <t>27/8/1989</t>
+  </si>
+  <si>
+    <t>11/3/1996</t>
+  </si>
+  <si>
+    <t>16/3/2009</t>
+  </si>
+  <si>
+    <t>31/10/1992</t>
+  </si>
+  <si>
+    <t>5/10/2014</t>
+  </si>
+  <si>
+    <t>25/11/1999</t>
+  </si>
+  <si>
+    <t>6/3/1997</t>
+  </si>
+  <si>
+    <t>11/11/1996</t>
+  </si>
+  <si>
+    <t>8/11/1998</t>
+  </si>
+  <si>
+    <t>18/4/1982</t>
+  </si>
+  <si>
+    <t>5/12/1989</t>
+  </si>
+  <si>
+    <t>8/6/2011</t>
+  </si>
+  <si>
+    <t>27/2/2008</t>
+  </si>
+  <si>
+    <t>10/2/2022</t>
+  </si>
+  <si>
+    <t>21/5/2001</t>
+  </si>
+  <si>
+    <t>15/8/1994</t>
+  </si>
+  <si>
+    <t>30/7/1997</t>
+  </si>
+  <si>
+    <t>17/9/1989</t>
+  </si>
+  <si>
+    <t>2/4/1992</t>
+  </si>
+  <si>
+    <t>31/12/1996</t>
+  </si>
+  <si>
+    <t>16/11/1995</t>
+  </si>
+  <si>
+    <t>18/12/1978</t>
+  </si>
+  <si>
+    <t>26/5/1996</t>
+  </si>
+  <si>
+    <t>29/3/1998</t>
+  </si>
+  <si>
+    <t>23/11/2000</t>
+  </si>
+  <si>
+    <t>31/12/2013</t>
+  </si>
+  <si>
+    <t>27/3/1977</t>
+  </si>
+  <si>
+    <t>30/4/1995</t>
+  </si>
+  <si>
+    <t>30/9/2010</t>
+  </si>
+  <si>
+    <t>13/3/2003</t>
+  </si>
+  <si>
+    <t>19/5/2004</t>
+  </si>
+  <si>
+    <t>6/4/2014</t>
+  </si>
+  <si>
+    <t>18/10/1987</t>
+  </si>
+  <si>
+    <t>31/12/1987</t>
+  </si>
+  <si>
+    <t>23/1/1989</t>
+  </si>
+  <si>
+    <t>5/10/1980</t>
+  </si>
+  <si>
+    <t>20/9/1981</t>
+  </si>
+  <si>
+    <t>22/8/2012</t>
+  </si>
+  <si>
+    <t>12/9/1968</t>
+  </si>
+  <si>
+    <t>18/5/1989</t>
+  </si>
+  <si>
+    <t>28/1/2007</t>
+  </si>
+  <si>
+    <t>30/4/2003</t>
+  </si>
+  <si>
+    <t>3/9/1986</t>
+  </si>
+  <si>
+    <t>14/8/1993</t>
+  </si>
+  <si>
+    <t>14/9/2017</t>
+  </si>
+  <si>
+    <t>3/3/2009</t>
+  </si>
+  <si>
+    <t>6/12/1998</t>
+  </si>
+  <si>
+    <t>19/2/2003</t>
+  </si>
+  <si>
+    <t>15/3/2009</t>
+  </si>
+  <si>
+    <t>21/2/1995</t>
+  </si>
+  <si>
+    <t>2/3/1989</t>
+  </si>
+  <si>
+    <t>23/7/1992</t>
+  </si>
+  <si>
+    <t>22/2/2012</t>
+  </si>
+  <si>
+    <t>15/3/1987</t>
+  </si>
+  <si>
+    <t>12/10/1999</t>
+  </si>
+  <si>
+    <t>2/6/2013</t>
+  </si>
+  <si>
+    <t>5/3/1990</t>
+  </si>
+  <si>
+    <t>22/10/1996</t>
+  </si>
+  <si>
+    <t>11/2/2001</t>
   </si>
 </sst>
 </file>
@@ -518,7 +3123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,19 +3154,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>443</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>581</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -569,19 +3174,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>296</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>582</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -589,19 +3194,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>445</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>583</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -609,19 +3214,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>446</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>584</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -629,19 +3234,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>447</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>585</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -649,19 +3254,2859 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" t="s">
+        <v>589</v>
+      </c>
+      <c r="F10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" t="s">
+        <v>591</v>
+      </c>
+      <c r="F12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" t="s">
+        <v>592</v>
+      </c>
+      <c r="F13" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F14" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E15" t="s">
+        <v>594</v>
+      </c>
+      <c r="F15" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E16" t="s">
+        <v>595</v>
+      </c>
+      <c r="F16" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>458</v>
+      </c>
+      <c r="E17" t="s">
+        <v>596</v>
+      </c>
+      <c r="F17" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" t="s">
+        <v>597</v>
+      </c>
+      <c r="F18" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E19" t="s">
+        <v>598</v>
+      </c>
+      <c r="F19" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E20" t="s">
+        <v>599</v>
+      </c>
+      <c r="F20" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E21" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E22" t="s">
+        <v>601</v>
+      </c>
+      <c r="F22" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F23" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E24" t="s">
+        <v>603</v>
+      </c>
+      <c r="F24" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E25" t="s">
+        <v>604</v>
+      </c>
+      <c r="F25" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E26" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" t="s">
+        <v>606</v>
+      </c>
+      <c r="F27" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" t="s">
+        <v>469</v>
+      </c>
+      <c r="E28" t="s">
+        <v>607</v>
+      </c>
+      <c r="F28" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E29" t="s">
+        <v>608</v>
+      </c>
+      <c r="F29" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" t="s">
+        <v>609</v>
+      </c>
+      <c r="F30" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E31" t="s">
+        <v>610</v>
+      </c>
+      <c r="F31" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E32" t="s">
+        <v>611</v>
+      </c>
+      <c r="F32" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E33" t="s">
+        <v>612</v>
+      </c>
+      <c r="F33" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E34" t="s">
+        <v>613</v>
+      </c>
+      <c r="F34" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E35" t="s">
+        <v>614</v>
+      </c>
+      <c r="F35" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E36" t="s">
+        <v>615</v>
+      </c>
+      <c r="F36" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E37" t="s">
+        <v>616</v>
+      </c>
+      <c r="F37" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E38" t="s">
+        <v>617</v>
+      </c>
+      <c r="F38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" t="s">
+        <v>480</v>
+      </c>
+      <c r="E39" t="s">
+        <v>618</v>
+      </c>
+      <c r="F39" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" t="s">
+        <v>333</v>
+      </c>
+      <c r="D40" t="s">
+        <v>481</v>
+      </c>
+      <c r="E40" t="s">
+        <v>619</v>
+      </c>
+      <c r="F40" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E41" t="s">
+        <v>620</v>
+      </c>
+      <c r="F41" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" t="s">
+        <v>335</v>
+      </c>
+      <c r="D42" t="s">
+        <v>483</v>
+      </c>
+      <c r="E42" t="s">
+        <v>621</v>
+      </c>
+      <c r="F42" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E43" t="s">
+        <v>622</v>
+      </c>
+      <c r="F43" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E44" t="s">
+        <v>623</v>
+      </c>
+      <c r="F44" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" t="s">
+        <v>486</v>
+      </c>
+      <c r="E45" t="s">
+        <v>624</v>
+      </c>
+      <c r="F45" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E46" t="s">
+        <v>625</v>
+      </c>
+      <c r="F46" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" t="s">
+        <v>340</v>
+      </c>
+      <c r="D47" t="s">
+        <v>488</v>
+      </c>
+      <c r="E47" t="s">
+        <v>626</v>
+      </c>
+      <c r="F47" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E48" t="s">
+        <v>627</v>
+      </c>
+      <c r="F48" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E49" t="s">
+        <v>628</v>
+      </c>
+      <c r="F49" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E50" t="s">
+        <v>629</v>
+      </c>
+      <c r="F50" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E51" t="s">
+        <v>630</v>
+      </c>
+      <c r="F51" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E52" t="s">
+        <v>631</v>
+      </c>
+      <c r="F52" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E53" t="s">
+        <v>632</v>
+      </c>
+      <c r="F53" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" t="s">
+        <v>494</v>
+      </c>
+      <c r="E54" t="s">
+        <v>633</v>
+      </c>
+      <c r="F54" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>348</v>
+      </c>
+      <c r="D55" t="s">
+        <v>495</v>
+      </c>
+      <c r="E55" t="s">
+        <v>495</v>
+      </c>
+      <c r="F55" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
+        <v>349</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E56" t="s">
+        <v>634</v>
+      </c>
+      <c r="F56" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>350</v>
+      </c>
+      <c r="D57" t="s">
+        <v>497</v>
+      </c>
+      <c r="E57" t="s">
+        <v>635</v>
+      </c>
+      <c r="F57" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E58" t="s">
+        <v>636</v>
+      </c>
+      <c r="F58" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E59" t="s">
+        <v>637</v>
+      </c>
+      <c r="F59" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E60" t="s">
+        <v>638</v>
+      </c>
+      <c r="F60" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" t="s">
+        <v>354</v>
+      </c>
+      <c r="D61" t="s">
+        <v>501</v>
+      </c>
+      <c r="E61" t="s">
+        <v>639</v>
+      </c>
+      <c r="F61" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
+        <v>355</v>
+      </c>
+      <c r="D62" t="s">
+        <v>502</v>
+      </c>
+      <c r="E62" t="s">
+        <v>640</v>
+      </c>
+      <c r="F62" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E63" t="s">
+        <v>641</v>
+      </c>
+      <c r="F63" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D64" t="s">
+        <v>503</v>
+      </c>
+      <c r="E64" t="s">
+        <v>642</v>
+      </c>
+      <c r="F64" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" t="s">
+        <v>358</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E65" t="s">
+        <v>643</v>
+      </c>
+      <c r="F65" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E66" t="s">
+        <v>644</v>
+      </c>
+      <c r="F66" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" t="s">
+        <v>360</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E67" t="s">
+        <v>645</v>
+      </c>
+      <c r="F67" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E68" t="s">
+        <v>646</v>
+      </c>
+      <c r="F68" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>362</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E69" t="s">
+        <v>647</v>
+      </c>
+      <c r="F69" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>363</v>
+      </c>
+      <c r="D70" t="s">
+        <v>509</v>
+      </c>
+      <c r="E70" t="s">
+        <v>648</v>
+      </c>
+      <c r="F70" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" t="s">
+        <v>364</v>
+      </c>
+      <c r="D71" t="s">
+        <v>510</v>
+      </c>
+      <c r="E71" t="s">
+        <v>649</v>
+      </c>
+      <c r="F71" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>365</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E72" t="s">
+        <v>650</v>
+      </c>
+      <c r="F72" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s">
+        <v>366</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E73" t="s">
+        <v>651</v>
+      </c>
+      <c r="F73" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" t="s">
+        <v>367</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E74" t="s">
+        <v>652</v>
+      </c>
+      <c r="F74" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" t="s">
+        <v>368</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E75" t="s">
+        <v>653</v>
+      </c>
+      <c r="F75" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E76" t="s">
+        <v>654</v>
+      </c>
+      <c r="F76" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E77" t="s">
+        <v>655</v>
+      </c>
+      <c r="F77" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" t="s">
+        <v>517</v>
+      </c>
+      <c r="E78" t="s">
+        <v>656</v>
+      </c>
+      <c r="F78" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" t="s">
+        <v>372</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E79" t="s">
+        <v>657</v>
+      </c>
+      <c r="F79" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" t="s">
+        <v>373</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E80" t="s">
+        <v>658</v>
+      </c>
+      <c r="F80" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81" t="s">
+        <v>520</v>
+      </c>
+      <c r="E81" t="s">
+        <v>659</v>
+      </c>
+      <c r="F81" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" t="s">
+        <v>521</v>
+      </c>
+      <c r="E82" t="s">
+        <v>660</v>
+      </c>
+      <c r="F82" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" t="s">
+        <v>376</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E83" t="s">
+        <v>661</v>
+      </c>
+      <c r="F83" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E84" t="s">
+        <v>662</v>
+      </c>
+      <c r="F84" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" t="s">
+        <v>378</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E85" t="s">
+        <v>663</v>
+      </c>
+      <c r="F85" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" t="s">
+        <v>525</v>
+      </c>
+      <c r="E86" t="s">
+        <v>664</v>
+      </c>
+      <c r="F86" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" t="s">
+        <v>380</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E87" t="s">
+        <v>665</v>
+      </c>
+      <c r="F87" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" t="s">
+        <v>381</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E88" t="s">
+        <v>666</v>
+      </c>
+      <c r="F88" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" t="s">
+        <v>528</v>
+      </c>
+      <c r="E89" t="s">
+        <v>667</v>
+      </c>
+      <c r="F89" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>241</v>
+      </c>
+      <c r="C90" t="s">
+        <v>383</v>
+      </c>
+      <c r="D90" t="s">
+        <v>529</v>
+      </c>
+      <c r="E90" t="s">
+        <v>668</v>
+      </c>
+      <c r="F90" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" t="s">
+        <v>384</v>
+      </c>
+      <c r="D91" t="s">
+        <v>530</v>
+      </c>
+      <c r="E91" t="s">
+        <v>669</v>
+      </c>
+      <c r="F91" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E92" t="s">
+        <v>670</v>
+      </c>
+      <c r="F92" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" t="s">
+        <v>386</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E93" t="s">
+        <v>671</v>
+      </c>
+      <c r="F93" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" t="s">
+        <v>387</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E94" t="s">
+        <v>672</v>
+      </c>
+      <c r="F94" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" t="s">
+        <v>388</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E95" t="s">
+        <v>673</v>
+      </c>
+      <c r="F95" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" t="s">
+        <v>389</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E96" t="s">
+        <v>674</v>
+      </c>
+      <c r="F96" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" t="s">
+        <v>390</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E97" t="s">
+        <v>675</v>
+      </c>
+      <c r="F97" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" t="s">
+        <v>391</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E98" t="s">
+        <v>676</v>
+      </c>
+      <c r="F98" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" t="s">
+        <v>537</v>
+      </c>
+      <c r="E99" t="s">
+        <v>677</v>
+      </c>
+      <c r="F99" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>393</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E100" t="s">
+        <v>678</v>
+      </c>
+      <c r="F100" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>250</v>
+      </c>
+      <c r="C101" t="s">
+        <v>394</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E101" t="s">
+        <v>679</v>
+      </c>
+      <c r="F101" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" t="s">
+        <v>395</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E102" t="s">
+        <v>680</v>
+      </c>
+      <c r="F102" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" t="s">
+        <v>396</v>
+      </c>
+      <c r="D103" t="s">
+        <v>540</v>
+      </c>
+      <c r="E103" t="s">
+        <v>681</v>
+      </c>
+      <c r="F103" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" t="s">
+        <v>397</v>
+      </c>
+      <c r="D104" t="s">
+        <v>495</v>
+      </c>
+      <c r="E104" t="s">
+        <v>495</v>
+      </c>
+      <c r="F104" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>254</v>
+      </c>
+      <c r="C105" t="s">
+        <v>398</v>
+      </c>
+      <c r="D105" t="s">
+        <v>541</v>
+      </c>
+      <c r="E105" t="s">
+        <v>682</v>
+      </c>
+      <c r="F105" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E106" t="s">
+        <v>683</v>
+      </c>
+      <c r="F106" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E107" t="s">
+        <v>684</v>
+      </c>
+      <c r="F107" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E108" t="s">
+        <v>685</v>
+      </c>
+      <c r="F108" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" t="s">
+        <v>402</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E109" t="s">
+        <v>686</v>
+      </c>
+      <c r="F109" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" t="s">
+        <v>403</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E110" t="s">
+        <v>687</v>
+      </c>
+      <c r="F110" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111" t="s">
+        <v>404</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E111" t="s">
+        <v>688</v>
+      </c>
+      <c r="F111" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112" t="s">
+        <v>405</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E112" t="s">
+        <v>689</v>
+      </c>
+      <c r="F112" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" t="s">
+        <v>406</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E113" t="s">
+        <v>690</v>
+      </c>
+      <c r="F113" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" t="s">
+        <v>407</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E114" t="s">
+        <v>691</v>
+      </c>
+      <c r="F114" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" t="s">
+        <v>408</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E115" t="s">
+        <v>692</v>
+      </c>
+      <c r="F115" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>265</v>
+      </c>
+      <c r="C116" t="s">
+        <v>409</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E116" t="s">
+        <v>693</v>
+      </c>
+      <c r="F116" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117" t="s">
+        <v>410</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E117" t="s">
+        <v>694</v>
+      </c>
+      <c r="F117" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" t="s">
+        <v>411</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E118" t="s">
+        <v>495</v>
+      </c>
+      <c r="F118" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" t="s">
+        <v>412</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E119" t="s">
+        <v>695</v>
+      </c>
+      <c r="F119" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" t="s">
+        <v>413</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E120" t="s">
+        <v>696</v>
+      </c>
+      <c r="F120" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" t="s">
+        <v>414</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E121" t="s">
+        <v>697</v>
+      </c>
+      <c r="F121" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" t="s">
+        <v>415</v>
+      </c>
+      <c r="D122" t="s">
+        <v>557</v>
+      </c>
+      <c r="E122" t="s">
+        <v>698</v>
+      </c>
+      <c r="F122" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" t="s">
+        <v>416</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E123" t="s">
+        <v>699</v>
+      </c>
+      <c r="F123" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>273</v>
+      </c>
+      <c r="C124" t="s">
+        <v>417</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E124" t="s">
+        <v>700</v>
+      </c>
+      <c r="F124" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
+        <v>418</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E125" t="s">
+        <v>701</v>
+      </c>
+      <c r="F125" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" t="s">
+        <v>419</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E126" t="s">
+        <v>702</v>
+      </c>
+      <c r="F126" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" t="s">
+        <v>420</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E127" t="s">
+        <v>703</v>
+      </c>
+      <c r="F127" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" t="s">
+        <v>421</v>
+      </c>
+      <c r="D128" t="s">
+        <v>562</v>
+      </c>
+      <c r="E128" t="s">
+        <v>704</v>
+      </c>
+      <c r="F128" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" t="s">
+        <v>422</v>
+      </c>
+      <c r="D129" t="s">
+        <v>563</v>
+      </c>
+      <c r="E129" t="s">
+        <v>705</v>
+      </c>
+      <c r="F129" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" t="s">
+        <v>423</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E130" t="s">
+        <v>706</v>
+      </c>
+      <c r="F130" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" t="s">
+        <v>424</v>
+      </c>
+      <c r="D131" t="s">
+        <v>564</v>
+      </c>
+      <c r="E131" t="s">
+        <v>707</v>
+      </c>
+      <c r="F131" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" t="s">
+        <v>425</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E132" t="s">
+        <v>708</v>
+      </c>
+      <c r="F132" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="s">
+        <v>280</v>
+      </c>
+      <c r="C133" t="s">
+        <v>426</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E133" t="s">
+        <v>709</v>
+      </c>
+      <c r="F133" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" t="s">
+        <v>427</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E134" t="s">
+        <v>710</v>
+      </c>
+      <c r="F134" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" t="s">
+        <v>428</v>
+      </c>
+      <c r="D135" t="s">
+        <v>568</v>
+      </c>
+      <c r="E135" t="s">
+        <v>711</v>
+      </c>
+      <c r="F135" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" t="s">
+        <v>429</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E136" t="s">
+        <v>712</v>
+      </c>
+      <c r="F136" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" t="s">
+        <v>430</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E137" t="s">
+        <v>713</v>
+      </c>
+      <c r="F137" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" t="s">
+        <v>431</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E138" t="s">
+        <v>714</v>
+      </c>
+      <c r="F138" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="s">
+        <v>286</v>
+      </c>
+      <c r="C139" t="s">
+        <v>432</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E139" t="s">
+        <v>715</v>
+      </c>
+      <c r="F139" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" t="s">
+        <v>433</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E140" t="s">
+        <v>716</v>
+      </c>
+      <c r="F140" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" t="s">
+        <v>287</v>
+      </c>
+      <c r="C141" t="s">
+        <v>434</v>
+      </c>
+      <c r="D141" t="s">
+        <v>573</v>
+      </c>
+      <c r="E141" t="s">
+        <v>717</v>
+      </c>
+      <c r="F141" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" t="s">
+        <v>435</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E142" t="s">
+        <v>718</v>
+      </c>
+      <c r="F142" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" t="s">
+        <v>436</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E143" t="s">
+        <v>719</v>
+      </c>
+      <c r="F143" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" t="s">
+        <v>437</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E144" t="s">
+        <v>720</v>
+      </c>
+      <c r="F144" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" t="s">
+        <v>438</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E145" t="s">
+        <v>721</v>
+      </c>
+      <c r="F145" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146" t="s">
+        <v>439</v>
+      </c>
+      <c r="D146" t="s">
+        <v>578</v>
+      </c>
+      <c r="E146" t="s">
+        <v>722</v>
+      </c>
+      <c r="F146" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" t="s">
+        <v>440</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E147" t="s">
+        <v>723</v>
+      </c>
+      <c r="F147" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" t="s">
+        <v>204</v>
+      </c>
+      <c r="C148" t="s">
+        <v>441</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E148" t="s">
+        <v>724</v>
+      </c>
+      <c r="F148" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" t="s">
+        <v>442</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E149" t="s">
+        <v>725</v>
+      </c>
+      <c r="F149" t="s">
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -678,6 +6123,255 @@
     <hyperlink ref="D6" r:id="rId10"/>
     <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="A10" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="A11" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="A12" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="A14" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="A15" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="A16" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="A17" r:id="rId30"/>
+    <hyperlink ref="A18" r:id="rId31"/>
+    <hyperlink ref="D18" r:id="rId32"/>
+    <hyperlink ref="A19" r:id="rId33"/>
+    <hyperlink ref="D19" r:id="rId34"/>
+    <hyperlink ref="A20" r:id="rId35"/>
+    <hyperlink ref="D20" r:id="rId36"/>
+    <hyperlink ref="A21" r:id="rId37"/>
+    <hyperlink ref="D21" r:id="rId38"/>
+    <hyperlink ref="A22" r:id="rId39"/>
+    <hyperlink ref="D22" r:id="rId40"/>
+    <hyperlink ref="A23" r:id="rId41"/>
+    <hyperlink ref="D23" r:id="rId42"/>
+    <hyperlink ref="A24" r:id="rId43"/>
+    <hyperlink ref="D24" r:id="rId44"/>
+    <hyperlink ref="A25" r:id="rId45"/>
+    <hyperlink ref="D25" r:id="rId46"/>
+    <hyperlink ref="A26" r:id="rId47"/>
+    <hyperlink ref="D26" r:id="rId48"/>
+    <hyperlink ref="A27" r:id="rId49"/>
+    <hyperlink ref="D27" r:id="rId50"/>
+    <hyperlink ref="A28" r:id="rId51"/>
+    <hyperlink ref="A29" r:id="rId52"/>
+    <hyperlink ref="D29" r:id="rId53"/>
+    <hyperlink ref="A30" r:id="rId54"/>
+    <hyperlink ref="D30" r:id="rId55"/>
+    <hyperlink ref="A31" r:id="rId56"/>
+    <hyperlink ref="A32" r:id="rId57"/>
+    <hyperlink ref="D32" r:id="rId58"/>
+    <hyperlink ref="A33" r:id="rId59"/>
+    <hyperlink ref="D33" r:id="rId60"/>
+    <hyperlink ref="A34" r:id="rId61"/>
+    <hyperlink ref="D34" r:id="rId62"/>
+    <hyperlink ref="A35" r:id="rId63"/>
+    <hyperlink ref="D35" r:id="rId64"/>
+    <hyperlink ref="A36" r:id="rId65"/>
+    <hyperlink ref="D36" r:id="rId66"/>
+    <hyperlink ref="A37" r:id="rId67"/>
+    <hyperlink ref="D37" r:id="rId68"/>
+    <hyperlink ref="A38" r:id="rId69"/>
+    <hyperlink ref="D38" r:id="rId70"/>
+    <hyperlink ref="A39" r:id="rId71"/>
+    <hyperlink ref="A40" r:id="rId72"/>
+    <hyperlink ref="A41" r:id="rId73"/>
+    <hyperlink ref="D41" r:id="rId74"/>
+    <hyperlink ref="A42" r:id="rId75"/>
+    <hyperlink ref="A43" r:id="rId76"/>
+    <hyperlink ref="D43" r:id="rId77"/>
+    <hyperlink ref="A44" r:id="rId78"/>
+    <hyperlink ref="D44" r:id="rId79"/>
+    <hyperlink ref="A45" r:id="rId80"/>
+    <hyperlink ref="A46" r:id="rId81"/>
+    <hyperlink ref="D46" r:id="rId82"/>
+    <hyperlink ref="A47" r:id="rId83"/>
+    <hyperlink ref="A48" r:id="rId84"/>
+    <hyperlink ref="D48" r:id="rId85"/>
+    <hyperlink ref="A49" r:id="rId86"/>
+    <hyperlink ref="D49" r:id="rId87"/>
+    <hyperlink ref="A50" r:id="rId88"/>
+    <hyperlink ref="D50" r:id="rId89"/>
+    <hyperlink ref="A51" r:id="rId90"/>
+    <hyperlink ref="D51" r:id="rId91"/>
+    <hyperlink ref="A52" r:id="rId92"/>
+    <hyperlink ref="D52" r:id="rId93"/>
+    <hyperlink ref="A53" r:id="rId94"/>
+    <hyperlink ref="D53" r:id="rId95"/>
+    <hyperlink ref="A54" r:id="rId96"/>
+    <hyperlink ref="A55" r:id="rId97"/>
+    <hyperlink ref="A56" r:id="rId98"/>
+    <hyperlink ref="D56" r:id="rId99"/>
+    <hyperlink ref="A57" r:id="rId100"/>
+    <hyperlink ref="A58" r:id="rId101"/>
+    <hyperlink ref="D58" r:id="rId102"/>
+    <hyperlink ref="A59" r:id="rId103"/>
+    <hyperlink ref="D59" r:id="rId104"/>
+    <hyperlink ref="A60" r:id="rId105"/>
+    <hyperlink ref="D60" r:id="rId106"/>
+    <hyperlink ref="A61" r:id="rId107"/>
+    <hyperlink ref="A62" r:id="rId108"/>
+    <hyperlink ref="A63" r:id="rId109"/>
+    <hyperlink ref="D63" r:id="rId110"/>
+    <hyperlink ref="A64" r:id="rId111"/>
+    <hyperlink ref="A65" r:id="rId112"/>
+    <hyperlink ref="D65" r:id="rId113"/>
+    <hyperlink ref="A66" r:id="rId114"/>
+    <hyperlink ref="D66" r:id="rId115"/>
+    <hyperlink ref="A67" r:id="rId116"/>
+    <hyperlink ref="D67" r:id="rId117"/>
+    <hyperlink ref="A68" r:id="rId118"/>
+    <hyperlink ref="D68" r:id="rId119"/>
+    <hyperlink ref="A69" r:id="rId120"/>
+    <hyperlink ref="D69" r:id="rId121"/>
+    <hyperlink ref="A70" r:id="rId122"/>
+    <hyperlink ref="A71" r:id="rId123"/>
+    <hyperlink ref="A72" r:id="rId124"/>
+    <hyperlink ref="D72" r:id="rId125"/>
+    <hyperlink ref="A73" r:id="rId126"/>
+    <hyperlink ref="D73" r:id="rId127"/>
+    <hyperlink ref="A74" r:id="rId128"/>
+    <hyperlink ref="D74" r:id="rId129"/>
+    <hyperlink ref="A75" r:id="rId130"/>
+    <hyperlink ref="D75" r:id="rId131"/>
+    <hyperlink ref="A76" r:id="rId132"/>
+    <hyperlink ref="D76" r:id="rId133"/>
+    <hyperlink ref="A77" r:id="rId134"/>
+    <hyperlink ref="D77" r:id="rId135"/>
+    <hyperlink ref="A78" r:id="rId136"/>
+    <hyperlink ref="A79" r:id="rId137"/>
+    <hyperlink ref="D79" r:id="rId138"/>
+    <hyperlink ref="A80" r:id="rId139"/>
+    <hyperlink ref="D80" r:id="rId140"/>
+    <hyperlink ref="A81" r:id="rId141"/>
+    <hyperlink ref="A82" r:id="rId142"/>
+    <hyperlink ref="A83" r:id="rId143"/>
+    <hyperlink ref="D83" r:id="rId144"/>
+    <hyperlink ref="A84" r:id="rId145"/>
+    <hyperlink ref="D84" r:id="rId146"/>
+    <hyperlink ref="A85" r:id="rId147"/>
+    <hyperlink ref="D85" r:id="rId148"/>
+    <hyperlink ref="A86" r:id="rId149"/>
+    <hyperlink ref="A87" r:id="rId150"/>
+    <hyperlink ref="D87" r:id="rId151"/>
+    <hyperlink ref="A88" r:id="rId152"/>
+    <hyperlink ref="D88" r:id="rId153"/>
+    <hyperlink ref="A89" r:id="rId154"/>
+    <hyperlink ref="A90" r:id="rId155"/>
+    <hyperlink ref="A91" r:id="rId156"/>
+    <hyperlink ref="A92" r:id="rId157"/>
+    <hyperlink ref="D92" r:id="rId158"/>
+    <hyperlink ref="A93" r:id="rId159"/>
+    <hyperlink ref="D93" r:id="rId160"/>
+    <hyperlink ref="A94" r:id="rId161"/>
+    <hyperlink ref="D94" r:id="rId162"/>
+    <hyperlink ref="A95" r:id="rId163"/>
+    <hyperlink ref="D95" r:id="rId164"/>
+    <hyperlink ref="A96" r:id="rId165"/>
+    <hyperlink ref="D96" r:id="rId166"/>
+    <hyperlink ref="A97" r:id="rId167"/>
+    <hyperlink ref="D97" r:id="rId168"/>
+    <hyperlink ref="A98" r:id="rId169"/>
+    <hyperlink ref="D98" r:id="rId170"/>
+    <hyperlink ref="A99" r:id="rId171"/>
+    <hyperlink ref="A100" r:id="rId172"/>
+    <hyperlink ref="D100" r:id="rId173"/>
+    <hyperlink ref="A101" r:id="rId174"/>
+    <hyperlink ref="D101" r:id="rId175"/>
+    <hyperlink ref="A102" r:id="rId176"/>
+    <hyperlink ref="D102" r:id="rId177"/>
+    <hyperlink ref="A103" r:id="rId178"/>
+    <hyperlink ref="A104" r:id="rId179"/>
+    <hyperlink ref="A105" r:id="rId180"/>
+    <hyperlink ref="A106" r:id="rId181"/>
+    <hyperlink ref="D106" r:id="rId182"/>
+    <hyperlink ref="A107" r:id="rId183"/>
+    <hyperlink ref="D107" r:id="rId184"/>
+    <hyperlink ref="A108" r:id="rId185"/>
+    <hyperlink ref="D108" r:id="rId186"/>
+    <hyperlink ref="A109" r:id="rId187"/>
+    <hyperlink ref="D109" r:id="rId188"/>
+    <hyperlink ref="A110" r:id="rId189"/>
+    <hyperlink ref="D110" r:id="rId190"/>
+    <hyperlink ref="A111" r:id="rId191"/>
+    <hyperlink ref="D111" r:id="rId192"/>
+    <hyperlink ref="A112" r:id="rId193"/>
+    <hyperlink ref="D112" r:id="rId194"/>
+    <hyperlink ref="A113" r:id="rId195"/>
+    <hyperlink ref="D113" r:id="rId196"/>
+    <hyperlink ref="A114" r:id="rId197"/>
+    <hyperlink ref="D114" r:id="rId198"/>
+    <hyperlink ref="A115" r:id="rId199"/>
+    <hyperlink ref="D115" r:id="rId200"/>
+    <hyperlink ref="A116" r:id="rId201"/>
+    <hyperlink ref="D116" r:id="rId202"/>
+    <hyperlink ref="A117" r:id="rId203"/>
+    <hyperlink ref="D117" r:id="rId204"/>
+    <hyperlink ref="A118" r:id="rId205"/>
+    <hyperlink ref="D118" r:id="rId206"/>
+    <hyperlink ref="A119" r:id="rId207"/>
+    <hyperlink ref="D119" r:id="rId208"/>
+    <hyperlink ref="A120" r:id="rId209"/>
+    <hyperlink ref="D120" r:id="rId210"/>
+    <hyperlink ref="A121" r:id="rId211"/>
+    <hyperlink ref="D121" r:id="rId212"/>
+    <hyperlink ref="A122" r:id="rId213"/>
+    <hyperlink ref="A123" r:id="rId214"/>
+    <hyperlink ref="D123" r:id="rId215"/>
+    <hyperlink ref="A124" r:id="rId216"/>
+    <hyperlink ref="D124" r:id="rId217"/>
+    <hyperlink ref="A125" r:id="rId218"/>
+    <hyperlink ref="D125" r:id="rId219"/>
+    <hyperlink ref="A126" r:id="rId220"/>
+    <hyperlink ref="D126" r:id="rId221"/>
+    <hyperlink ref="A127" r:id="rId222"/>
+    <hyperlink ref="D127" r:id="rId223"/>
+    <hyperlink ref="A128" r:id="rId224"/>
+    <hyperlink ref="A129" r:id="rId225"/>
+    <hyperlink ref="A130" r:id="rId226"/>
+    <hyperlink ref="D130" r:id="rId227"/>
+    <hyperlink ref="A131" r:id="rId228"/>
+    <hyperlink ref="A132" r:id="rId229"/>
+    <hyperlink ref="D132" r:id="rId230"/>
+    <hyperlink ref="A133" r:id="rId231"/>
+    <hyperlink ref="D133" r:id="rId232"/>
+    <hyperlink ref="A134" r:id="rId233"/>
+    <hyperlink ref="D134" r:id="rId234"/>
+    <hyperlink ref="A135" r:id="rId235"/>
+    <hyperlink ref="A136" r:id="rId236"/>
+    <hyperlink ref="D136" r:id="rId237"/>
+    <hyperlink ref="A137" r:id="rId238"/>
+    <hyperlink ref="D137" r:id="rId239"/>
+    <hyperlink ref="A138" r:id="rId240"/>
+    <hyperlink ref="D138" r:id="rId241"/>
+    <hyperlink ref="A139" r:id="rId242"/>
+    <hyperlink ref="D139" r:id="rId243"/>
+    <hyperlink ref="A140" r:id="rId244"/>
+    <hyperlink ref="D140" r:id="rId245"/>
+    <hyperlink ref="A141" r:id="rId246"/>
+    <hyperlink ref="A142" r:id="rId247"/>
+    <hyperlink ref="D142" r:id="rId248"/>
+    <hyperlink ref="A143" r:id="rId249"/>
+    <hyperlink ref="D143" r:id="rId250"/>
+    <hyperlink ref="A144" r:id="rId251"/>
+    <hyperlink ref="D144" r:id="rId252"/>
+    <hyperlink ref="A145" r:id="rId253"/>
+    <hyperlink ref="D145" r:id="rId254"/>
+    <hyperlink ref="A146" r:id="rId255"/>
+    <hyperlink ref="A147" r:id="rId256"/>
+    <hyperlink ref="D147" r:id="rId257"/>
+    <hyperlink ref="A148" r:id="rId258"/>
+    <hyperlink ref="D148" r:id="rId259"/>
+    <hyperlink ref="A149" r:id="rId260"/>
+    <hyperlink ref="D149" r:id="rId261"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
